--- a/results/ROI_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>528.7049157365506</v>
+        <v>528.7049157365504</v>
       </c>
       <c r="H3">
         <v>76.32335744562776</v>
       </c>
       <c r="I3">
-        <v>452.3815582909228</v>
+        <v>452.3815582909227</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,10 +743,10 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>528.7049157365506</v>
+        <v>528.7049157365504</v>
       </c>
       <c r="P3">
         <v>76.32335744562776</v>
@@ -755,22 +755,22 @@
         <v>1.935451443118261</v>
       </c>
       <c r="R3">
-        <v>304.6614059791517</v>
+        <v>304.6614059791516</v>
       </c>
       <c r="S3">
-        <v>6.927170573086965</v>
+        <v>6.927170573086964</v>
       </c>
       <c r="T3">
-        <v>6.927170573086965</v>
+        <v>6.927170573086964</v>
       </c>
       <c r="U3">
         <v>1.935451443118261</v>
       </c>
       <c r="V3">
-        <v>304.6614059791517</v>
+        <v>304.6614059791516</v>
       </c>
       <c r="W3">
-        <v>573.8005017071878</v>
+        <v>573.800501707188</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
@@ -826,7 +826,7 @@
         <v>0.6897669222181875</v>
       </c>
       <c r="O4">
-        <v>456.6260876059086</v>
+        <v>456.6260876059084</v>
       </c>
       <c r="P4">
         <v>104.67879609134</v>
@@ -835,10 +835,10 @@
         <v>1.472968290199861</v>
       </c>
       <c r="R4">
-        <v>197.7587442157276</v>
+        <v>197.7587442157275</v>
       </c>
       <c r="S4">
-        <v>4.362164112085017</v>
+        <v>4.362164112085015</v>
       </c>
       <c r="T4">
         <v>5.138983791565419</v>
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>431.9587605630221</v>
+        <v>431.958760563022</v>
       </c>
       <c r="H6">
         <v>50.68475468586411</v>
       </c>
       <c r="I6">
-        <v>381.274005877158</v>
+        <v>381.2740058771579</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,7 +983,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.799300511599345</v>
+        <v>0.7993005115993448</v>
       </c>
       <c r="O6">
         <v>563.3232989669328</v>
@@ -1001,16 +1001,16 @@
         <v>6.526463496453893</v>
       </c>
       <c r="T6">
-        <v>8.522459332006882</v>
+        <v>8.52245933200688</v>
       </c>
       <c r="U6">
         <v>2.142704953180094</v>
       </c>
       <c r="V6">
-        <v>272.671530961039</v>
+        <v>272.6715309610389</v>
       </c>
       <c r="W6">
-        <v>681.1878539969468</v>
+        <v>681.1878539969471</v>
       </c>
       <c r="X6">
         <v>1062.461859874105</v>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>537.297922507285</v>
+        <v>537.2979225072849</v>
       </c>
       <c r="H7">
         <v>38.90961801632167</v>
       </c>
       <c r="I7">
-        <v>498.3883044909633</v>
+        <v>498.3883044909632</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,10 +1063,10 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O7">
-        <v>537.297922507285</v>
+        <v>537.2979225072849</v>
       </c>
       <c r="P7">
         <v>38.90961801632167</v>
@@ -1075,22 +1075,22 @@
         <v>2.625311261345743</v>
       </c>
       <c r="R7">
-        <v>396.2384461380527</v>
+        <v>396.2384461380526</v>
       </c>
       <c r="S7">
-        <v>13.80887168519365</v>
+        <v>13.80887168519364</v>
       </c>
       <c r="T7">
-        <v>13.80887168519365</v>
+        <v>13.80887168519364</v>
       </c>
       <c r="U7">
         <v>2.625311261345743</v>
       </c>
       <c r="V7">
-        <v>396.2384461380527</v>
+        <v>396.2384461380526</v>
       </c>
       <c r="W7">
-        <v>577.8650575629038</v>
+        <v>577.8650575629039</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>499.0332841645901</v>
+        <v>499.03328416459</v>
       </c>
       <c r="H8">
         <v>30.2413568541062</v>
@@ -1143,19 +1143,19 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9396248936450454</v>
+        <v>0.9396248936450453</v>
       </c>
       <c r="O8">
-        <v>535.4869833518909</v>
+        <v>535.4869833518908</v>
       </c>
       <c r="P8">
         <v>36.57307581170198</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990122</v>
+        <v>2.683864245990121</v>
       </c>
       <c r="R8">
-        <v>400.7567370032758</v>
+        <v>400.7567370032757</v>
       </c>
       <c r="S8">
         <v>14.64156271976872</v>
@@ -1170,7 +1170,7 @@
         <v>384.0114211877159</v>
       </c>
       <c r="W8">
-        <v>608.1004894629273</v>
+        <v>608.1004894629274</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
@@ -1282,13 +1282,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>356.0367920869668</v>
+        <v>356.0367920869669</v>
       </c>
       <c r="H10">
         <v>46.91506141262917</v>
       </c>
       <c r="I10">
-        <v>309.1217306743376</v>
+        <v>309.1217306743378</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1303,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.8483531529899273</v>
+        <v>0.8483531529899276</v>
       </c>
       <c r="O10">
         <v>428.904737017038</v>
@@ -1312,25 +1312,25 @@
         <v>64.52614116356334</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982344</v>
+        <v>1.894164404982343</v>
       </c>
       <c r="R10">
         <v>242.155476070587</v>
       </c>
       <c r="S10">
-        <v>6.646991890152456</v>
+        <v>6.646991890152455</v>
       </c>
       <c r="T10">
-        <v>7.588965704542901</v>
+        <v>7.588965704542903</v>
       </c>
       <c r="U10">
         <v>2.026695311310616</v>
       </c>
       <c r="V10">
-        <v>214.0391956795125</v>
+        <v>214.0391956795126</v>
       </c>
       <c r="W10">
-        <v>671.2268130918185</v>
+        <v>671.2268130918184</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
@@ -1362,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>390.2213409538734</v>
+        <v>390.2213409538733</v>
       </c>
       <c r="H11">
         <v>43.91824455134801</v>
       </c>
       <c r="I11">
-        <v>346.3030964025254</v>
+        <v>346.3030964025253</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,10 +1383,10 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.801531802266692</v>
+        <v>0.8015318022666917</v>
       </c>
       <c r="O11">
-        <v>506.1946670291918</v>
+        <v>506.1946670291917</v>
       </c>
       <c r="P11">
         <v>74.14306854838594</v>
@@ -1395,22 +1395,22 @@
         <v>1.92092472731819</v>
       </c>
       <c r="R11">
-        <v>289.6283447469638</v>
+        <v>289.6283447469636</v>
       </c>
       <c r="S11">
-        <v>6.827268913193794</v>
+        <v>6.827268913193793</v>
       </c>
       <c r="T11">
-        <v>8.885176193634909</v>
+        <v>8.885176193634907</v>
       </c>
       <c r="U11">
         <v>2.184384291869747</v>
       </c>
       <c r="V11">
-        <v>250.3687728780667</v>
+        <v>250.3687728780666</v>
       </c>
       <c r="W11">
-        <v>743.6901079409661</v>
+        <v>743.6901079409662</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>233.1015327585146</v>
+        <v>233.1015327585147</v>
       </c>
       <c r="H12">
         <v>23.26281294387793</v>
@@ -1466,7 +1466,7 @@
         <v>0.6149901089716939</v>
       </c>
       <c r="O12">
-        <v>419.67842183392</v>
+        <v>419.6784218339201</v>
       </c>
       <c r="P12">
         <v>78.47176378619696</v>
@@ -1478,10 +1478,10 @@
         <v>209.6291365457212</v>
       </c>
       <c r="S12">
-        <v>5.348145646087041</v>
+        <v>5.348145646087042</v>
       </c>
       <c r="T12">
-        <v>10.0203502182164</v>
+        <v>10.02035021821641</v>
       </c>
       <c r="U12">
         <v>2.30461804696372</v>
@@ -1546,19 +1546,19 @@
         <v>0.9623823085159555</v>
       </c>
       <c r="O13">
-        <v>539.9925089263924</v>
+        <v>539.9925089263921</v>
       </c>
       <c r="P13">
         <v>58.89083095514691</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953769</v>
+        <v>2.215869859953768</v>
       </c>
       <c r="R13">
-        <v>350.607260630103</v>
+        <v>350.6072606301028</v>
       </c>
       <c r="S13">
-        <v>9.169381721539427</v>
+        <v>9.169381721539423</v>
       </c>
       <c r="T13">
         <v>13.87162868163201</v>
@@ -1626,7 +1626,7 @@
         <v>0.9289403103711926</v>
       </c>
       <c r="O14">
-        <v>499.0476433600485</v>
+        <v>499.0476433600487</v>
       </c>
       <c r="P14">
         <v>76.4006209487325</v>
@@ -1635,10 +1635,10 @@
         <v>1.876710745128607</v>
       </c>
       <c r="R14">
-        <v>279.265156142332</v>
+        <v>279.2651561423322</v>
       </c>
       <c r="S14">
-        <v>6.531984127392461</v>
+        <v>6.531984127392462</v>
       </c>
       <c r="T14">
         <v>8.131466140018299</v>
@@ -1848,7 +1848,7 @@
         <v>18.89191695744822</v>
       </c>
       <c r="I17">
-        <v>435.0443069814676</v>
+        <v>435.0443069814675</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1863,22 +1863,22 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.9223081811335617</v>
+        <v>0.9223081811335616</v>
       </c>
       <c r="O17">
-        <v>525.5309912556434</v>
+        <v>525.5309912556432</v>
       </c>
       <c r="P17">
         <v>53.84016612734731</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468205</v>
+        <v>2.278389392468204</v>
       </c>
       <c r="R17">
-        <v>349.021961735022</v>
+        <v>349.0219617350219</v>
       </c>
       <c r="S17">
-        <v>9.760946688251538</v>
+        <v>9.760946688251536</v>
       </c>
       <c r="T17">
         <v>24.02806581043907</v>
@@ -1887,7 +1887,7 @@
         <v>3.179222555890401</v>
       </c>
       <c r="V17">
-        <v>374.9826984663398</v>
+        <v>374.9826984663397</v>
       </c>
       <c r="W17">
         <v>650.6853530787237</v>
@@ -2008,7 +2008,7 @@
         <v>92.84540610367907</v>
       </c>
       <c r="I19">
-        <v>414.0192852051964</v>
+        <v>414.0192852051965</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -2038,10 +2038,10 @@
         <v>256.4320089546447</v>
       </c>
       <c r="S19">
-        <v>5.459232853619783</v>
+        <v>5.459232853619784</v>
       </c>
       <c r="T19">
-        <v>5.459232853619783</v>
+        <v>5.459232853619784</v>
       </c>
       <c r="U19">
         <v>1.697308276885303</v>
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>444.7102097108974</v>
+        <v>444.7102097108975</v>
       </c>
       <c r="H20">
         <v>37.04318147193647</v>
       </c>
       <c r="I20">
-        <v>407.6670282389609</v>
+        <v>407.667028238961</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.949584272206621</v>
+        <v>0.9495842722066212</v>
       </c>
       <c r="O20">
         <v>504.9803370094003</v>
@@ -2127,7 +2127,7 @@
         <v>2.485338556941149</v>
       </c>
       <c r="V20">
-        <v>315.6021810549892</v>
+        <v>315.6021810549893</v>
       </c>
       <c r="W20">
         <v>648.3000722829404</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>432.844130926325</v>
+        <v>432.8441309263251</v>
       </c>
       <c r="H21">
         <v>57.55154746444542</v>
@@ -2183,7 +2183,7 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.955323869936087</v>
+        <v>0.9553238699360871</v>
       </c>
       <c r="O21">
         <v>465.0934976583241</v>
@@ -2201,7 +2201,7 @@
         <v>6.43726280406137</v>
       </c>
       <c r="T21">
-        <v>7.520981624234003</v>
+        <v>7.520981624234004</v>
       </c>
       <c r="U21">
         <v>2.017696664580279</v>
@@ -2210,7 +2210,7 @@
         <v>259.1710181014345</v>
       </c>
       <c r="W21">
-        <v>612.7438540850076</v>
+        <v>612.7438540850075</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>585.5897675952095</v>
+        <v>585.5897675952097</v>
       </c>
       <c r="H22">
         <v>5.900588952127829</v>
       </c>
       <c r="I22">
-        <v>579.6891786430817</v>
+        <v>579.6891786430818</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,7 +2263,7 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.8684493403555916</v>
+        <v>0.8684493403555918</v>
       </c>
       <c r="O22">
         <v>688.4041335709715</v>
@@ -2281,16 +2281,16 @@
         <v>32.93011228277943</v>
       </c>
       <c r="T22">
-        <v>99.2425963486303</v>
+        <v>99.24259634863031</v>
       </c>
       <c r="U22">
         <v>4.597567320801307</v>
       </c>
       <c r="V22">
-        <v>552.5608237032976</v>
+        <v>552.5608237032977</v>
       </c>
       <c r="W22">
-        <v>511.9044812202039</v>
+        <v>511.9044812202038</v>
       </c>
       <c r="X22">
         <v>1091.593659863286</v>
@@ -2426,7 +2426,7 @@
         <v>0.9154138236555925</v>
       </c>
       <c r="O24">
-        <v>654.8531363540125</v>
+        <v>654.8531363540123</v>
       </c>
       <c r="P24">
         <v>46.11118107218711</v>
@@ -2435,7 +2435,7 @@
         <v>2.653355531066012</v>
       </c>
       <c r="R24">
-        <v>486.3925979399513</v>
+        <v>486.3925979399511</v>
       </c>
       <c r="S24">
         <v>14.2016127352895</v>
@@ -2482,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>491.9342129574279</v>
+        <v>491.934212957428</v>
       </c>
       <c r="H25">
         <v>16.58270297274271</v>
       </c>
       <c r="I25">
-        <v>475.3515099846852</v>
+        <v>475.3515099846853</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2503,10 +2503,10 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.9018253848013004</v>
+        <v>0.9018253848013005</v>
       </c>
       <c r="O25">
-        <v>565.1724489516334</v>
+        <v>565.1724489516336</v>
       </c>
       <c r="P25">
         <v>38.07317009354327</v>
@@ -2515,22 +2515,22 @@
         <v>2.697621066910294</v>
       </c>
       <c r="R25">
-        <v>424.3922931296889</v>
+        <v>424.392293129689</v>
       </c>
       <c r="S25">
-        <v>14.84437590993978</v>
+        <v>14.84437590993979</v>
       </c>
       <c r="T25">
-        <v>29.66550228669168</v>
+        <v>29.66550228669169</v>
       </c>
       <c r="U25">
         <v>3.389984831530576</v>
       </c>
       <c r="V25">
-        <v>419.1363984413104</v>
+        <v>419.1363984413105</v>
       </c>
       <c r="W25">
-        <v>538.9512812770068</v>
+        <v>538.9512812770067</v>
       </c>
       <c r="X25">
         <v>1014.302791261692</v>
@@ -2539,7 +2539,7 @@
         <v>487.2035124036017</v>
       </c>
       <c r="Z25">
-        <v>1.106213866599831</v>
+        <v>1.10621386659983</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2562,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>472.7400302474567</v>
+        <v>472.7400302474565</v>
       </c>
       <c r="H26">
         <v>11.54826437355933</v>
       </c>
       <c r="I26">
-        <v>461.1917658738973</v>
+        <v>461.1917658738972</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,34 +2583,34 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.732362699884897</v>
+        <v>0.7323626998848968</v>
       </c>
       <c r="O26">
-        <v>654.1143554917093</v>
+        <v>654.114355491709</v>
       </c>
       <c r="P26">
         <v>24.38298612188556</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670973</v>
+        <v>3.289396592670972</v>
       </c>
       <c r="R26">
-        <v>549.5260579013498</v>
+        <v>549.5260579013495</v>
       </c>
       <c r="S26">
-        <v>26.82667136100252</v>
+        <v>26.82667136100251</v>
       </c>
       <c r="T26">
-        <v>40.93602423320274</v>
+        <v>40.93602423320273</v>
       </c>
       <c r="U26">
         <v>3.712010463480404</v>
       </c>
       <c r="V26">
-        <v>418.3244876842072</v>
+        <v>418.324487684207</v>
       </c>
       <c r="W26">
-        <v>646.632165258445</v>
+        <v>646.6321652584452</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
@@ -2619,7 +2619,7 @@
         <v>478.0925617625187</v>
       </c>
       <c r="Z26">
-        <v>1.352525048443745</v>
+        <v>1.352525048443746</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2666,7 +2666,7 @@
         <v>0.7363292627984743</v>
       </c>
       <c r="O27">
-        <v>688.3324197142417</v>
+        <v>688.332419714242</v>
       </c>
       <c r="P27">
         <v>19.33742141962198</v>
@@ -2675,10 +2675,10 @@
         <v>3.572229737170086</v>
       </c>
       <c r="R27">
-        <v>599.9172864592564</v>
+        <v>599.9172864592566</v>
       </c>
       <c r="S27">
-        <v>35.59587417460842</v>
+        <v>35.59587417460843</v>
       </c>
       <c r="T27">
         <v>61.11626299125691</v>
@@ -2722,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>642.72599312359</v>
+        <v>642.7259931235899</v>
       </c>
       <c r="H28">
         <v>6.328380100051852</v>
       </c>
       <c r="I28">
-        <v>636.3976130235382</v>
+        <v>636.397613023538</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -2743,10 +2743,10 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.853771256068852</v>
+        <v>0.8537712560688517</v>
       </c>
       <c r="O28">
-        <v>779.9290081588408</v>
+        <v>779.9290081588406</v>
       </c>
       <c r="P28">
         <v>34.53308565636632</v>
@@ -2755,10 +2755,10 @@
         <v>3.117285031341922</v>
       </c>
       <c r="R28">
-        <v>637.7464514998353</v>
+        <v>637.7464514998351</v>
       </c>
       <c r="S28">
-        <v>22.58497882059542</v>
+        <v>22.58497882059541</v>
       </c>
       <c r="T28">
         <v>101.5624824934779</v>
@@ -2767,10 +2767,10 @@
         <v>4.620674200152131</v>
       </c>
       <c r="V28">
-        <v>607.1562303664724</v>
+        <v>607.1562303664723</v>
       </c>
       <c r="W28">
-        <v>564.7267981985862</v>
+        <v>564.7267981985863</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
@@ -2802,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>421.7437738735715</v>
+        <v>421.7437738735716</v>
       </c>
       <c r="H29">
         <v>8.113378585735902</v>
       </c>
       <c r="I29">
-        <v>413.6303952878356</v>
+        <v>413.6303952878357</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,7 +2823,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.8118357657510937</v>
+        <v>0.811835765751094</v>
       </c>
       <c r="O29">
         <v>524.8087351725844</v>
@@ -2841,16 +2841,16 @@
         <v>34.28185258728094</v>
       </c>
       <c r="T29">
-        <v>51.98127628544754</v>
+        <v>51.98127628544756</v>
       </c>
       <c r="U29">
         <v>3.950883582306442</v>
       </c>
       <c r="V29">
-        <v>381.575381036415</v>
+        <v>381.5753810364151</v>
       </c>
       <c r="W29">
-        <v>508.5133405373406</v>
+        <v>508.5133405373405</v>
       </c>
       <c r="X29">
         <v>922.1437358251762</v>
@@ -2882,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>286.1767373142137</v>
+        <v>286.1767373142138</v>
       </c>
       <c r="H30">
         <v>10.44122343660039</v>
       </c>
       <c r="I30">
-        <v>275.7355138776132</v>
+        <v>275.7355138776134</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -2903,10 +2903,10 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.571222535695824</v>
+        <v>0.5712225356958244</v>
       </c>
       <c r="O30">
-        <v>524.6575727565481</v>
+        <v>524.6575727565482</v>
       </c>
       <c r="P30">
         <v>41.94637589921254</v>
@@ -2915,22 +2915,22 @@
         <v>2.52635376919962</v>
       </c>
       <c r="R30">
-        <v>376.7398120000959</v>
+        <v>376.739812000096</v>
       </c>
       <c r="S30">
         <v>12.50781650403313</v>
       </c>
       <c r="T30">
-        <v>27.40835296283933</v>
+        <v>27.40835296283935</v>
       </c>
       <c r="U30">
-        <v>3.310847819594264</v>
+        <v>3.310847819594265</v>
       </c>
       <c r="V30">
-        <v>241.1662120286483</v>
+        <v>241.1662120286485</v>
       </c>
       <c r="W30">
-        <v>779.1634951838779</v>
+        <v>779.1634951838778</v>
       </c>
       <c r="X30">
         <v>1054.899009061491</v>

--- a/results/ROI_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>360.3551779063135</v>
+        <v>719.5294281303313</v>
       </c>
       <c r="H2">
-        <v>66.16748731842856</v>
+        <v>161.8358650250638</v>
       </c>
       <c r="I2">
-        <v>294.187690587885</v>
+        <v>557.6935631052676</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>357.4998289857137</v>
+        <v>573.3888778517335</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.8229030246603033</v>
+        <v>0.9726271029091632</v>
       </c>
       <c r="O2">
-        <v>557.3957175557402</v>
+        <v>794.2830386233179</v>
       </c>
       <c r="P2">
-        <v>199.8958885700265</v>
+        <v>220.8941607715842</v>
       </c>
       <c r="Q2">
-        <v>1.025478758264612</v>
+        <v>1.279756193276276</v>
       </c>
       <c r="R2">
-        <v>152.5108413927217</v>
+        <v>290.6982075457334</v>
       </c>
       <c r="S2">
-        <v>2.788430125017185</v>
+        <v>3.59576294750791</v>
       </c>
       <c r="T2">
-        <v>5.446106426440492</v>
+        <v>4.446044317919868</v>
       </c>
       <c r="U2">
-        <v>1.694900936190717</v>
+        <v>1.492014783535479</v>
       </c>
       <c r="V2">
-        <v>182.040354386493</v>
+        <v>316.23205998162</v>
       </c>
       <c r="W2">
-        <v>708.8210580656215</v>
+        <v>445.3151855482389</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
       </c>
       <c r="Y2">
-        <v>645.5089196677927</v>
+        <v>429.619870801773</v>
       </c>
       <c r="Z2">
-        <v>1.098080965992557</v>
+        <v>1.036533027946716</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>528.7049157365504</v>
+        <v>882.905006376526</v>
       </c>
       <c r="H3">
-        <v>76.32335744562776</v>
+        <v>168.6938907107667</v>
       </c>
       <c r="I3">
-        <v>452.3815582909227</v>
+        <v>714.2111156657593</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>452.3815582909228</v>
+        <v>714.2111156657595</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>528.7049157365504</v>
+        <v>882.905006376526</v>
       </c>
       <c r="P3">
-        <v>76.32335744562776</v>
+        <v>168.6938907107667</v>
       </c>
       <c r="Q3">
-        <v>1.935451443118261</v>
+        <v>1.655131839298548</v>
       </c>
       <c r="R3">
-        <v>304.6614059791516</v>
+        <v>435.0004860552197</v>
       </c>
       <c r="S3">
-        <v>6.927170573086964</v>
+        <v>5.233769893245905</v>
       </c>
       <c r="T3">
-        <v>6.927170573086964</v>
+        <v>5.233769893245905</v>
       </c>
       <c r="U3">
-        <v>1.935451443118261</v>
+        <v>1.655131839298548</v>
       </c>
       <c r="V3">
-        <v>304.6614059791516</v>
+        <v>435.0004860552197</v>
       </c>
       <c r="W3">
-        <v>573.800501707188</v>
+        <v>311.9709443323513</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
       </c>
       <c r="Y3">
-        <v>573.8005017071878</v>
+        <v>311.9709443323511</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>301.4140645873118</v>
+        <v>677.6998560038024</v>
       </c>
       <c r="H4">
-        <v>58.65246453628065</v>
+        <v>180.8525221564144</v>
       </c>
       <c r="I4">
-        <v>242.7616000510312</v>
+        <v>496.8473338473881</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>351.9472915145686</v>
+        <v>575.0594454227252</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.6897669222181875</v>
+        <v>0.8639929972494522</v>
       </c>
       <c r="O4">
-        <v>456.6260876059084</v>
+        <v>814.4638785740743</v>
       </c>
       <c r="P4">
-        <v>104.67879609134</v>
+        <v>239.4044331513487</v>
       </c>
       <c r="Q4">
-        <v>1.472968290199861</v>
+        <v>1.224375768372575</v>
       </c>
       <c r="R4">
-        <v>197.7587442157275</v>
+        <v>281.9384586312422</v>
       </c>
       <c r="S4">
-        <v>4.362164112085015</v>
+        <v>3.402041757761351</v>
       </c>
       <c r="T4">
-        <v>5.138983791565419</v>
+        <v>3.747251340059712</v>
       </c>
       <c r="U4">
-        <v>1.636855353999557</v>
+        <v>1.321022595240009</v>
       </c>
       <c r="V4">
-        <v>146.755999449551</v>
+        <v>257.9370656726204</v>
       </c>
       <c r="W4">
-        <v>803.4231946785883</v>
+        <v>549.3374608822313</v>
       </c>
       <c r="X4">
         <v>1046.184794729619</v>
       </c>
       <c r="Y4">
-        <v>694.2375032150508</v>
+        <v>471.1253493068942</v>
       </c>
       <c r="Z4">
-        <v>1.157274262709653</v>
+        <v>1.166011257280892</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>439.3387629517008</v>
+        <v>647.1103669002538</v>
       </c>
       <c r="H5">
-        <v>65.5558225745522</v>
+        <v>123.6056963059469</v>
       </c>
       <c r="I5">
-        <v>373.7829403771486</v>
+        <v>523.5046705943068</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>438.5394629884245</v>
+        <v>629.0649500864163</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.8523359285160041</v>
+        <v>0.8321949434989052</v>
       </c>
       <c r="O5">
-        <v>556.9758092718383</v>
+        <v>859.9064499472577</v>
       </c>
       <c r="P5">
-        <v>118.4363462834138</v>
+        <v>230.8414998608416</v>
       </c>
       <c r="Q5">
-        <v>1.548146154505865</v>
+        <v>1.315092276973478</v>
       </c>
       <c r="R5">
-        <v>255.1826889360325</v>
+        <v>325.4870764144489</v>
       </c>
       <c r="S5">
-        <v>4.702743935877724</v>
+        <v>3.725094709857785</v>
       </c>
       <c r="T5">
-        <v>6.701750442564741</v>
+        <v>5.235279491476962</v>
       </c>
       <c r="U5">
-        <v>1.902368752358737</v>
+        <v>1.655420231909194</v>
       </c>
       <c r="V5">
-        <v>249.071591976147</v>
+        <v>318.8853001502188</v>
       </c>
       <c r="W5">
-        <v>659.7214937621927</v>
+        <v>509.9997635450345</v>
       </c>
       <c r="X5">
         <v>1033.504434139341</v>
       </c>
       <c r="Y5">
-        <v>594.9649711509169</v>
+        <v>404.4394840529251</v>
       </c>
       <c r="Z5">
-        <v>1.108840899466752</v>
+        <v>1.261003892187479</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>431.958760563022</v>
+        <v>769.449874686379</v>
       </c>
       <c r="H6">
-        <v>50.68475468586411</v>
+        <v>146.3147228853855</v>
       </c>
       <c r="I6">
-        <v>381.2740058771579</v>
+        <v>623.1351518009935</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>477.0095856866839</v>
+        <v>683.6405294126477</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.7993005115993448</v>
+        <v>0.911495332695331</v>
       </c>
       <c r="O6">
-        <v>563.3232989669328</v>
+        <v>864.1353785937511</v>
       </c>
       <c r="P6">
-        <v>86.31371328024902</v>
+        <v>180.4948491811035</v>
       </c>
       <c r="Q6">
-        <v>1.875865218703646</v>
+        <v>1.566027203743969</v>
       </c>
       <c r="R6">
-        <v>315.0966930471057</v>
+        <v>400.9806854593746</v>
       </c>
       <c r="S6">
-        <v>6.526463496453893</v>
+        <v>4.787590241573606</v>
       </c>
       <c r="T6">
-        <v>8.52245933200688</v>
+        <v>5.258868414008628</v>
       </c>
       <c r="U6">
-        <v>2.142704953180094</v>
+        <v>1.65991587318914</v>
       </c>
       <c r="V6">
-        <v>272.6715309610389</v>
+        <v>380.2650208022718</v>
       </c>
       <c r="W6">
-        <v>681.1878539969471</v>
+        <v>439.3267080731114</v>
       </c>
       <c r="X6">
         <v>1062.461859874105</v>
       </c>
       <c r="Y6">
-        <v>585.452274187421</v>
+        <v>378.8213304614573</v>
       </c>
       <c r="Z6">
-        <v>1.163524140276681</v>
+        <v>1.159720091627233</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,64 +1039,64 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>537.2979225072849</v>
+        <v>838.7998606466221</v>
       </c>
       <c r="H7">
-        <v>38.90961801632167</v>
+        <v>97.71303374125684</v>
       </c>
       <c r="I7">
-        <v>498.3883044909632</v>
+        <v>741.0868269053652</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>498.3883044909633</v>
+        <v>741.0868269053652</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>537.2979225072849</v>
+        <v>838.7998606466223</v>
       </c>
       <c r="P7">
-        <v>38.90961801632167</v>
+        <v>97.71303374125685</v>
       </c>
       <c r="Q7">
-        <v>2.625311261345743</v>
+        <v>2.149937176997859</v>
       </c>
       <c r="R7">
-        <v>396.2384461380526</v>
+        <v>531.0099429877911</v>
       </c>
       <c r="S7">
-        <v>13.80887168519364</v>
+        <v>8.584319087541136</v>
       </c>
       <c r="T7">
-        <v>13.80887168519364</v>
+        <v>8.584319087541136</v>
       </c>
       <c r="U7">
-        <v>2.625311261345743</v>
+        <v>2.149937176997859</v>
       </c>
       <c r="V7">
-        <v>396.2384461380526</v>
+        <v>531.009942987791</v>
       </c>
       <c r="W7">
-        <v>577.8650575629039</v>
+        <v>335.1665351485018</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
       </c>
       <c r="Y7">
-        <v>577.8650575629038</v>
+        <v>335.1665351485018</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>499.03328416459</v>
+        <v>928.7605972863145</v>
       </c>
       <c r="H8">
-        <v>30.2413568541062</v>
+        <v>108.609875047918</v>
       </c>
       <c r="I8">
-        <v>468.7919273104839</v>
+        <v>820.1507222383965</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>498.9139075401888</v>
+        <v>820.1507222383964</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9396248936450453</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>535.4869833518908</v>
+        <v>928.7605972863145</v>
       </c>
       <c r="P8">
-        <v>36.57307581170198</v>
+        <v>108.609875047918</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990121</v>
+        <v>2.146088672409213</v>
       </c>
       <c r="R8">
-        <v>400.7567370032757</v>
+        <v>587.0642996862796</v>
       </c>
       <c r="S8">
-        <v>14.64156271976872</v>
+        <v>8.551345785791126</v>
       </c>
       <c r="T8">
-        <v>16.50168299564346</v>
+        <v>8.551345785791126</v>
       </c>
       <c r="U8">
-        <v>2.803462375440883</v>
+        <v>2.146088672409213</v>
       </c>
       <c r="V8">
-        <v>384.0114211877159</v>
+        <v>587.0642996862796</v>
       </c>
       <c r="W8">
-        <v>608.1004894629274</v>
+        <v>256.7416945350147</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
       </c>
       <c r="Y8">
-        <v>577.9785092332224</v>
+        <v>256.7416945350149</v>
       </c>
       <c r="Z8">
-        <v>1.05211609038832</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>316.1581384233315</v>
+        <v>739.4223945077233</v>
       </c>
       <c r="H9">
-        <v>60.39967349787314</v>
+        <v>177.318975778393</v>
       </c>
       <c r="I9">
-        <v>255.7584649254584</v>
+        <v>562.1034187293303</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>353.5430215259461</v>
+        <v>570.1988012359144</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.7234153960147919</v>
+        <v>0.985802526260951</v>
       </c>
       <c r="O9">
-        <v>524.6424153127471</v>
+        <v>806.1950430808654</v>
       </c>
       <c r="P9">
-        <v>171.0993937868009</v>
+        <v>235.9962418449508</v>
       </c>
       <c r="Q9">
-        <v>1.120472278980915</v>
+        <v>1.228509821653091</v>
       </c>
       <c r="R9">
-        <v>161.8308938373964</v>
+        <v>280.2751002561744</v>
       </c>
       <c r="S9">
-        <v>3.066302011370536</v>
+        <v>3.416135090873754</v>
       </c>
       <c r="T9">
-        <v>5.234434560883255</v>
+        <v>4.17001277647705</v>
       </c>
       <c r="U9">
-        <v>1.655258827196263</v>
+        <v>1.427919099709386</v>
       </c>
       <c r="V9">
-        <v>155.7813722083317</v>
+        <v>308.906266474457</v>
       </c>
       <c r="W9">
-        <v>797.3884542395253</v>
+        <v>491.0435004356534</v>
       </c>
       <c r="X9">
         <v>1053.146919164984</v>
       </c>
       <c r="Y9">
-        <v>699.6038976390377</v>
+        <v>482.9481179290693</v>
       </c>
       <c r="Z9">
-        <v>1.13977131478324</v>
+        <v>1.016762426865432</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>356.0367920869669</v>
+        <v>630.17861791403</v>
       </c>
       <c r="H10">
-        <v>46.91506141262917</v>
+        <v>125.6568220849428</v>
       </c>
       <c r="I10">
-        <v>309.1217306743378</v>
+        <v>504.5217958290872</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>364.3785958534746</v>
+        <v>524.0974120145718</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.8483531529899276</v>
+        <v>0.9626488974440113</v>
       </c>
       <c r="O10">
-        <v>428.904737017038</v>
+        <v>675.2340556614342</v>
       </c>
       <c r="P10">
-        <v>64.52614116356334</v>
+        <v>151.1366436468626</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982343</v>
+        <v>1.496875027466027</v>
       </c>
       <c r="R10">
-        <v>242.155476070587</v>
+        <v>297.8647444045509</v>
       </c>
       <c r="S10">
-        <v>6.646991890152455</v>
+        <v>4.467705775173545</v>
       </c>
       <c r="T10">
-        <v>7.588965704542903</v>
+        <v>5.015076837515717</v>
       </c>
       <c r="U10">
-        <v>2.026695311310616</v>
+        <v>1.612448742835053</v>
       </c>
       <c r="V10">
-        <v>214.0391956795126</v>
+        <v>301.9066110295732</v>
       </c>
       <c r="W10">
-        <v>671.2268130918184</v>
+        <v>475.8267479370689</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
       </c>
       <c r="Y10">
-        <v>615.9699479126815</v>
+        <v>456.2511317515844</v>
       </c>
       <c r="Z10">
-        <v>1.089707079649558</v>
+        <v>1.042905353703633</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>390.2213409538733</v>
+        <v>768.1984275144903</v>
       </c>
       <c r="H11">
-        <v>43.91824455134801</v>
+        <v>129.9050941075387</v>
       </c>
       <c r="I11">
-        <v>346.3030964025253</v>
+        <v>638.2933334069517</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>432.0515984808058</v>
+        <v>705.3441078077785</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.8015318022666917</v>
+        <v>0.9049389175317253</v>
       </c>
       <c r="O11">
-        <v>506.1946670291917</v>
+        <v>875.9331000902613</v>
       </c>
       <c r="P11">
-        <v>74.14306854838594</v>
+        <v>170.5889922824829</v>
       </c>
       <c r="Q11">
-        <v>1.92092472731819</v>
+        <v>1.63603260883359</v>
       </c>
       <c r="R11">
-        <v>289.6283447469636</v>
+        <v>426.2549537255746</v>
       </c>
       <c r="S11">
-        <v>6.827268913193793</v>
+        <v>5.134757456329773</v>
       </c>
       <c r="T11">
-        <v>8.885176193634907</v>
+        <v>5.913535822379348</v>
       </c>
       <c r="U11">
-        <v>2.184384291869747</v>
+        <v>1.777243930419502</v>
       </c>
       <c r="V11">
-        <v>250.3687728780666</v>
+        <v>407.4202933737544</v>
       </c>
       <c r="W11">
-        <v>743.6901079409662</v>
+        <v>451.6998709365398</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
       </c>
       <c r="Y11">
-        <v>657.9416058626857</v>
+        <v>384.6490965357129</v>
       </c>
       <c r="Z11">
-        <v>1.130328438442266</v>
+        <v>1.174316734407308</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>233.1015327585147</v>
+        <v>477.5883357771571</v>
       </c>
       <c r="H12">
-        <v>23.26281294387793</v>
+        <v>80.65025109744776</v>
       </c>
       <c r="I12">
-        <v>209.8387198146367</v>
+        <v>396.9380846797093</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>341.2066580477231</v>
+        <v>553.2739489521241</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.6149901089716939</v>
+        <v>0.7174349803230247</v>
       </c>
       <c r="O12">
-        <v>419.6784218339201</v>
+        <v>736.7200331575632</v>
       </c>
       <c r="P12">
-        <v>78.47176378619696</v>
+        <v>183.4460842054389</v>
       </c>
       <c r="Q12">
-        <v>1.676749892617377</v>
+        <v>1.390287141142696</v>
       </c>
       <c r="R12">
-        <v>209.6291365457212</v>
+        <v>298.2312169883224</v>
       </c>
       <c r="S12">
-        <v>5.348145646087042</v>
+        <v>4.016003047154279</v>
       </c>
       <c r="T12">
-        <v>10.02035021821641</v>
+        <v>5.921721622417499</v>
       </c>
       <c r="U12">
-        <v>2.30461804696372</v>
+        <v>1.778627221215096</v>
       </c>
       <c r="V12">
-        <v>156.2268212810344</v>
+        <v>253.491352679956</v>
       </c>
       <c r="W12">
-        <v>766.626825568444</v>
+        <v>579.5274607033715</v>
       </c>
       <c r="X12">
         <v>976.4655453830808</v>
       </c>
       <c r="Y12">
-        <v>635.2588873353577</v>
+        <v>423.1915964309567</v>
       </c>
       <c r="Z12">
-        <v>1.206794333541903</v>
+        <v>1.36942100360899</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>498.9746182533883</v>
+        <v>818.7900057276577</v>
       </c>
       <c r="H13">
-        <v>35.97087477652145</v>
+        <v>83.21448053807126</v>
       </c>
       <c r="I13">
-        <v>463.0037434768669</v>
+        <v>735.5755251895864</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>481.1016779712453</v>
+        <v>747.178584671793</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.9623823085159555</v>
+        <v>0.9844708350583905</v>
       </c>
       <c r="O13">
-        <v>539.9925089263921</v>
+        <v>853.3130213884899</v>
       </c>
       <c r="P13">
-        <v>58.89083095514691</v>
+        <v>106.1344367166967</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953768</v>
+        <v>2.084419884013728</v>
       </c>
       <c r="R13">
-        <v>350.6072606301028</v>
+        <v>525.949854400914</v>
       </c>
       <c r="S13">
-        <v>9.169381721539423</v>
+        <v>8.039926038955928</v>
       </c>
       <c r="T13">
-        <v>13.87162868163201</v>
+        <v>9.839513512952292</v>
       </c>
       <c r="U13">
-        <v>2.62984565220819</v>
+        <v>2.286406270101357</v>
       </c>
       <c r="V13">
-        <v>368.4058948397067</v>
+        <v>545.3134151241129</v>
       </c>
       <c r="W13">
-        <v>643.6217039970115</v>
+        <v>371.0499222842921</v>
       </c>
       <c r="X13">
         <v>1106.625447473878</v>
       </c>
       <c r="Y13">
-        <v>625.5237695026332</v>
+        <v>359.4468628020854</v>
       </c>
       <c r="Z13">
-        <v>1.028932448896016</v>
+        <v>1.032280319243168</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>447.667592458179</v>
+        <v>796.529941239844</v>
       </c>
       <c r="H14">
-        <v>55.0537362819507</v>
+        <v>129.9407889865536</v>
       </c>
       <c r="I14">
-        <v>392.6138561762283</v>
+        <v>666.5891522532904</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>422.647022411316</v>
+        <v>683.1198569416069</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.9289403103711926</v>
+        <v>0.9758011650220123</v>
       </c>
       <c r="O14">
-        <v>499.0476433600487</v>
+        <v>829.4438863921494</v>
       </c>
       <c r="P14">
-        <v>76.4006209487325</v>
+        <v>146.3240294505421</v>
       </c>
       <c r="Q14">
-        <v>1.876710745128607</v>
+        <v>1.734931917513215</v>
       </c>
       <c r="R14">
-        <v>279.2651561423322</v>
+        <v>429.257627948718</v>
       </c>
       <c r="S14">
-        <v>6.531984127392462</v>
+        <v>5.66854186224077</v>
       </c>
       <c r="T14">
-        <v>8.131466140018299</v>
+        <v>6.129945396301</v>
       </c>
       <c r="U14">
-        <v>2.095741244326573</v>
+        <v>1.813185842290339</v>
       </c>
       <c r="V14">
-        <v>277.2354703958659</v>
+        <v>430.982353326835</v>
       </c>
       <c r="W14">
-        <v>656.442593932772</v>
+        <v>382.4672978557098</v>
       </c>
       <c r="X14">
         <v>1049.056450109</v>
       </c>
       <c r="Y14">
-        <v>626.4094276976842</v>
+        <v>365.9365931673933</v>
       </c>
       <c r="Z14">
-        <v>1.047944946080189</v>
+        <v>1.045173685815987</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>439.8667340470432</v>
+        <v>833.3590265687218</v>
       </c>
       <c r="H15">
-        <v>49.79101465506619</v>
+        <v>158.3669452700746</v>
       </c>
       <c r="I15">
-        <v>390.075719391977</v>
+        <v>674.9920812986472</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>433.0427702365808</v>
+        <v>711.2446433515838</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.9007787364256655</v>
+        <v>0.949029405856606</v>
       </c>
       <c r="O15">
-        <v>504.0151765783277</v>
+        <v>898.1422605119153</v>
       </c>
       <c r="P15">
-        <v>70.97240634174683</v>
+        <v>186.8976171603312</v>
       </c>
       <c r="Q15">
-        <v>1.960315221450556</v>
+        <v>1.569767509929165</v>
       </c>
       <c r="R15">
-        <v>293.9144817818807</v>
+        <v>417.8588362501167</v>
       </c>
       <c r="S15">
-        <v>7.10156527807991</v>
+        <v>4.805530825689655</v>
       </c>
       <c r="T15">
-        <v>8.834259295462804</v>
+        <v>5.262203076200874</v>
       </c>
       <c r="U15">
-        <v>2.178637264731666</v>
+        <v>1.660549774842031</v>
       </c>
       <c r="V15">
-        <v>281.5991594156494</v>
+        <v>412.0158859880047</v>
       </c>
       <c r="W15">
-        <v>732.1384499161553</v>
+        <v>447.2220880094851</v>
       </c>
       <c r="X15">
         <v>1122.214169308132</v>
       </c>
       <c r="Y15">
-        <v>689.1713990715516</v>
+        <v>410.9695259565485</v>
       </c>
       <c r="Z15">
-        <v>1.062345957627506</v>
+        <v>1.088212287683758</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>408.9597054125643</v>
+        <v>797.8409769407805</v>
       </c>
       <c r="H16">
-        <v>51.86444793153855</v>
+        <v>154.8545189432255</v>
       </c>
       <c r="I16">
-        <v>357.0952574810258</v>
+        <v>642.986457997555</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>434.2230718995736</v>
+        <v>653.1313508819528</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>0.8223774382113307</v>
+        <v>0.9844673006881408</v>
       </c>
       <c r="O16">
-        <v>517.9565270564365</v>
+        <v>817.8240993691464</v>
       </c>
       <c r="P16">
-        <v>83.7334551568629</v>
+        <v>164.6927484871939</v>
       </c>
       <c r="Q16">
-        <v>1.822252713312427</v>
+        <v>1.60256566843303</v>
       </c>
       <c r="R16">
-        <v>281.6395560449558</v>
+        <v>389.2004063164998</v>
       </c>
       <c r="S16">
-        <v>6.185777549560298</v>
+        <v>4.965756579335601</v>
       </c>
       <c r="T16">
-        <v>7.885164534140885</v>
+        <v>5.152196928998205</v>
       </c>
       <c r="U16">
-        <v>2.064983086924103</v>
+        <v>1.639423211867777</v>
       </c>
       <c r="V16">
-        <v>249.9960496897429</v>
+        <v>389.1143651794128</v>
       </c>
       <c r="W16">
-        <v>645.7830864767586</v>
+        <v>359.8918859602294</v>
       </c>
       <c r="X16">
         <v>1002.878343957784</v>
       </c>
       <c r="Y16">
-        <v>568.6552720582108</v>
+        <v>349.7469930758316</v>
       </c>
       <c r="Z16">
-        <v>1.135631934158262</v>
+        <v>1.029006376281263</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>453.9362239389158</v>
+        <v>793.655810336027</v>
       </c>
       <c r="H17">
-        <v>18.89191695744822</v>
+        <v>84.12651018336592</v>
       </c>
       <c r="I17">
-        <v>435.0443069814675</v>
+        <v>709.5293001526611</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>471.690825128296</v>
+        <v>795.5460408144911</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.9223081811335616</v>
+        <v>0.8918771054736633</v>
       </c>
       <c r="O17">
-        <v>525.5309912556432</v>
+        <v>911.2720412530317</v>
       </c>
       <c r="P17">
-        <v>53.84016612734731</v>
+        <v>115.7260004385403</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468204</v>
+        <v>2.063616139117671</v>
       </c>
       <c r="R17">
-        <v>349.0219617350219</v>
+        <v>556.7319985939808</v>
       </c>
       <c r="S17">
-        <v>9.760946688251536</v>
+        <v>7.874393289319537</v>
       </c>
       <c r="T17">
-        <v>24.02806581043907</v>
+        <v>9.434075044907237</v>
       </c>
       <c r="U17">
-        <v>3.179222555890401</v>
+        <v>2.24432813955878</v>
       </c>
       <c r="V17">
-        <v>374.9826984663397</v>
+        <v>520.7218060652548</v>
       </c>
       <c r="W17">
-        <v>650.6853530787237</v>
+        <v>376.2003599075301</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
       </c>
       <c r="Y17">
-        <v>614.0388349318953</v>
+        <v>290.1836192457001</v>
       </c>
       <c r="Z17">
-        <v>1.059681108200417</v>
+        <v>1.296421765244437</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>415.8617680346452</v>
+        <v>728.225555068826</v>
       </c>
       <c r="H18">
-        <v>39.46551971590035</v>
+        <v>104.9647419008725</v>
       </c>
       <c r="I18">
-        <v>376.3962483187448</v>
+        <v>623.2608131679535</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>416.7634124449573</v>
+        <v>675.2686233886986</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.9031412957068445</v>
+        <v>0.9229820423763295</v>
       </c>
       <c r="O18">
-        <v>503.6323301907561</v>
+        <v>908.2513934362495</v>
       </c>
       <c r="P18">
-        <v>86.86891774579868</v>
+        <v>232.9827700475509</v>
       </c>
       <c r="Q18">
-        <v>1.757446208389496</v>
+        <v>1.360556702761525</v>
       </c>
       <c r="R18">
-        <v>264.0959623257045</v>
+        <v>358.2823539725561</v>
       </c>
       <c r="S18">
-        <v>5.797612578350715</v>
+        <v>3.898362927227961</v>
       </c>
       <c r="T18">
-        <v>10.53734426984114</v>
+        <v>6.937811134300257</v>
       </c>
       <c r="U18">
-        <v>2.354925544556006</v>
+        <v>1.936986326254327</v>
       </c>
       <c r="V18">
-        <v>283.4578878105924</v>
+        <v>419.9455433671488</v>
       </c>
       <c r="W18">
-        <v>684.5255255734393</v>
+        <v>437.6609607242306</v>
       </c>
       <c r="X18">
         <v>1060.921773892184</v>
       </c>
       <c r="Y18">
-        <v>644.1583614472268</v>
+        <v>385.6531505034854</v>
       </c>
       <c r="Z18">
-        <v>1.062666521995492</v>
+        <v>1.134856438104672</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>506.8646913088755</v>
+        <v>841.7680953541126</v>
       </c>
       <c r="H19">
-        <v>92.84540610367907</v>
+        <v>172.7041301859817</v>
       </c>
       <c r="I19">
-        <v>414.0192852051965</v>
+        <v>669.0639651681308</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>414.0192852051964</v>
+        <v>669.0639651681307</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>506.8646913088755</v>
+        <v>841.7680953541128</v>
       </c>
       <c r="P19">
-        <v>92.84540610367907</v>
+        <v>172.7041301859817</v>
       </c>
       <c r="Q19">
-        <v>1.697308276885303</v>
+        <v>1.583924654866474</v>
       </c>
       <c r="R19">
-        <v>256.4320089546447</v>
+        <v>395.5136353692854</v>
       </c>
       <c r="S19">
-        <v>5.459232853619784</v>
+        <v>4.874047276388985</v>
       </c>
       <c r="T19">
-        <v>5.459232853619784</v>
+        <v>4.874047276388984</v>
       </c>
       <c r="U19">
-        <v>1.697308276885303</v>
+        <v>1.583924654866474</v>
       </c>
       <c r="V19">
-        <v>256.4320089546447</v>
+        <v>395.5136353692852</v>
       </c>
       <c r="W19">
-        <v>674.7681980248449</v>
+        <v>419.7235180619105</v>
       </c>
       <c r="X19">
         <v>1088.787483230041</v>
       </c>
       <c r="Y19">
-        <v>674.7681980248449</v>
+        <v>419.7235180619106</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>444.7102097108975</v>
+        <v>816.7978921939</v>
       </c>
       <c r="H20">
-        <v>37.04318147193647</v>
+        <v>124.9036653378588</v>
       </c>
       <c r="I20">
-        <v>407.667028238961</v>
+        <v>691.8942268560412</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>429.3110576606688</v>
+        <v>700.7387290775803</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.9495842722066212</v>
+        <v>0.9873783168326067</v>
       </c>
       <c r="O20">
-        <v>504.9803370094003</v>
+        <v>865.2874068575413</v>
       </c>
       <c r="P20">
-        <v>75.66927934873149</v>
+        <v>164.5486777799607</v>
       </c>
       <c r="Q20">
-        <v>1.898147234847214</v>
+        <v>1.659855274020414</v>
       </c>
       <c r="R20">
-        <v>285.6796243019928</v>
+        <v>427.6117384314273</v>
       </c>
       <c r="S20">
-        <v>6.673518518421911</v>
+        <v>5.258549740610065</v>
       </c>
       <c r="T20">
-        <v>12.00518400526168</v>
+        <v>6.53942292233377</v>
       </c>
       <c r="U20">
-        <v>2.485338556941149</v>
+        <v>1.877848923400626</v>
       </c>
       <c r="V20">
-        <v>315.6021810549893</v>
+        <v>457.3440133725509</v>
       </c>
       <c r="W20">
-        <v>648.3000722829404</v>
+        <v>364.0728736658601</v>
       </c>
       <c r="X20">
         <v>1055.967100521901</v>
       </c>
       <c r="Y20">
-        <v>626.6560428612324</v>
+        <v>355.2283714443211</v>
       </c>
       <c r="Z20">
-        <v>1.034538930356251</v>
+        <v>1.024898073837904</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>432.8441309263251</v>
+        <v>879.2841512192156</v>
       </c>
       <c r="H21">
-        <v>57.55154746444542</v>
+        <v>208.4181420990253</v>
       </c>
       <c r="I21">
-        <v>375.2925834618796</v>
+        <v>670.8660091201903</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>392.8433019128763</v>
+        <v>670.8660091201903</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.9553238699360871</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>465.0934976583241</v>
+        <v>879.2841512192156</v>
       </c>
       <c r="P21">
-        <v>72.25019574544778</v>
+        <v>208.4181420990253</v>
       </c>
       <c r="Q21">
-        <v>1.862103419339976</v>
+        <v>1.439561751598643</v>
       </c>
       <c r="R21">
-        <v>258.3059653672954</v>
+        <v>370.8352234151824</v>
       </c>
       <c r="S21">
-        <v>6.43726280406137</v>
+        <v>4.218846509059864</v>
       </c>
       <c r="T21">
-        <v>7.520981624234004</v>
+        <v>4.218846509059864</v>
       </c>
       <c r="U21">
-        <v>2.017696664580279</v>
+        <v>1.439561751598643</v>
       </c>
       <c r="V21">
-        <v>259.1710181014345</v>
+        <v>370.8352234151824</v>
       </c>
       <c r="W21">
-        <v>612.7438540850075</v>
+        <v>317.1704284266968</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
       </c>
       <c r="Y21">
-        <v>595.1931356340108</v>
+        <v>317.1704284266968</v>
       </c>
       <c r="Z21">
-        <v>1.029487434246535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>585.5897675952097</v>
+        <v>906.0171580496201</v>
       </c>
       <c r="H22">
-        <v>5.900588952127829</v>
+        <v>17.32875575884133</v>
       </c>
       <c r="I22">
-        <v>579.6891786430818</v>
+        <v>888.6884022907788</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>667.499129431919</v>
+        <v>999.8780527028638</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.8684493403555918</v>
+        <v>0.8887967886568588</v>
       </c>
       <c r="O22">
-        <v>688.4041335709715</v>
+        <v>1026.32285866907</v>
       </c>
       <c r="P22">
-        <v>20.90500413905261</v>
+        <v>26.44480596620625</v>
       </c>
       <c r="Q22">
-        <v>3.494387506123712</v>
+        <v>3.658677886062841</v>
       </c>
       <c r="R22">
-        <v>594.4489441529489</v>
+        <v>903.1250259130825</v>
       </c>
       <c r="S22">
-        <v>32.93011228277943</v>
+        <v>38.8099976978695</v>
       </c>
       <c r="T22">
-        <v>99.24259634863031</v>
+        <v>52.28402838947972</v>
       </c>
       <c r="U22">
-        <v>4.597567320801307</v>
+        <v>3.956690939909152</v>
       </c>
       <c r="V22">
-        <v>552.5608237032977</v>
+        <v>820.1238713798728</v>
       </c>
       <c r="W22">
-        <v>511.9044812202038</v>
+        <v>202.9052575725069</v>
       </c>
       <c r="X22">
         <v>1091.593659863286</v>
       </c>
       <c r="Y22">
-        <v>424.0945304313667</v>
+        <v>91.71560716042188</v>
       </c>
       <c r="Z22">
-        <v>1.207052778302803</v>
+        <v>2.212330745601462</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>538.5571331676412</v>
+        <v>747.4723543095481</v>
       </c>
       <c r="H23">
-        <v>6.907039455684126</v>
+        <v>18.47251430280078</v>
       </c>
       <c r="I23">
-        <v>531.6500937119571</v>
+        <v>728.9998400067474</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>531.6500937119573</v>
+        <v>807.333669994752</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.9999999999999996</v>
+        <v>0.9029721750753764</v>
       </c>
       <c r="O23">
-        <v>538.5571331676412</v>
+        <v>834.6814578131207</v>
       </c>
       <c r="P23">
-        <v>6.907039455684126</v>
+        <v>27.34778781836857</v>
       </c>
       <c r="Q23">
-        <v>4.356352485334008</v>
+        <v>3.418414522974997</v>
       </c>
       <c r="R23">
-        <v>501.5605952128875</v>
+        <v>713.8475949452022</v>
       </c>
       <c r="S23">
-        <v>77.9722103258636</v>
+        <v>30.52098631730988</v>
       </c>
       <c r="T23">
-        <v>77.9722103258636</v>
+        <v>40.46402899231845</v>
       </c>
       <c r="U23">
-        <v>4.356352485334008</v>
+        <v>3.700413406423953</v>
       </c>
       <c r="V23">
-        <v>501.5605952128875</v>
+        <v>660.6439004303052</v>
       </c>
       <c r="W23">
-        <v>404.8071830114944</v>
+        <v>207.4574367167041</v>
       </c>
       <c r="X23">
         <v>936.4572767234515</v>
       </c>
       <c r="Y23">
-        <v>404.8071830114942</v>
+        <v>129.1236067286995</v>
       </c>
       <c r="Z23">
-        <v>1.000000000000001</v>
+        <v>1.606657697787137</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>560.5681606486503</v>
+        <v>942.1686158532447</v>
       </c>
       <c r="H24">
-        <v>3.317359744532879</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="I24">
-        <v>557.2508009041175</v>
+        <v>919.4102495378969</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>608.7419552818253</v>
+        <v>944.1106363531736</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.9154138236555925</v>
+        <v>0.9738374022448395</v>
       </c>
       <c r="O24">
-        <v>654.8531363540123</v>
+        <v>985.8466438959207</v>
       </c>
       <c r="P24">
-        <v>46.11118107218711</v>
+        <v>41.73600754274699</v>
       </c>
       <c r="Q24">
-        <v>2.653355531066012</v>
+        <v>3.162136562486642</v>
       </c>
       <c r="R24">
-        <v>486.3925979399511</v>
+        <v>812.1356809300353</v>
       </c>
       <c r="S24">
-        <v>14.2016127352895</v>
+        <v>23.62100981715114</v>
       </c>
       <c r="T24">
-        <v>168.9802143323423</v>
+        <v>41.3987806856711</v>
       </c>
       <c r="U24">
-        <v>5.129781633112712</v>
+        <v>3.723251428360619</v>
       </c>
       <c r="V24">
-        <v>540.2334698161852</v>
+        <v>834.6751296471243</v>
       </c>
       <c r="W24">
-        <v>529.2668030052724</v>
+        <v>167.107354371493</v>
       </c>
       <c r="X24">
         <v>1086.51760390939</v>
       </c>
       <c r="Y24">
-        <v>477.7756486275646</v>
+        <v>142.4069675562163</v>
       </c>
       <c r="Z24">
-        <v>1.107772663855136</v>
+        <v>1.173449285797944</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>491.934212957428</v>
+        <v>683.25886101459</v>
       </c>
       <c r="H25">
-        <v>16.58270297274271</v>
+        <v>32.31125099992239</v>
       </c>
       <c r="I25">
-        <v>475.3515099846853</v>
+        <v>650.9476100146676</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>527.0992788580903</v>
+        <v>892.5315257935497</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
-        <v>0.9018253848013005</v>
+        <v>0.7293273024007865</v>
       </c>
       <c r="O25">
-        <v>565.1724489516336</v>
+        <v>966.2879719167693</v>
       </c>
       <c r="P25">
-        <v>38.07317009354327</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.697621066910294</v>
+        <v>2.572693500900644</v>
       </c>
       <c r="R25">
-        <v>424.392293129689</v>
+        <v>702.7787962028137</v>
       </c>
       <c r="S25">
-        <v>14.84437590993979</v>
+        <v>13.10106468934878</v>
       </c>
       <c r="T25">
-        <v>29.66550228669169</v>
+        <v>21.14615930581676</v>
       </c>
       <c r="U25">
-        <v>3.389984831530576</v>
+        <v>3.051458295896672</v>
       </c>
       <c r="V25">
-        <v>419.1363984413105</v>
+        <v>552.3511751001547</v>
       </c>
       <c r="W25">
-        <v>538.9512812770067</v>
+        <v>363.3551812470245</v>
       </c>
       <c r="X25">
         <v>1014.302791261692</v>
       </c>
       <c r="Y25">
-        <v>487.2035124036017</v>
+        <v>121.7712654681424</v>
       </c>
       <c r="Z25">
-        <v>1.10621386659983</v>
+        <v>2.983915621227448</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>472.7400302474565</v>
+        <v>867.7078586183756</v>
       </c>
       <c r="H26">
-        <v>11.54826437355933</v>
+        <v>34.67463047160044</v>
       </c>
       <c r="I26">
-        <v>461.1917658738972</v>
+        <v>833.0332281467752</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>629.7313693698236</v>
+        <v>957.1562547441333</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.7323626998848968</v>
+        <v>0.8703210411234906</v>
       </c>
       <c r="O26">
-        <v>654.114355491709</v>
+        <v>1024.798213576305</v>
       </c>
       <c r="P26">
-        <v>24.38298612188556</v>
+        <v>67.64195883217219</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670972</v>
+        <v>2.718022524106048</v>
       </c>
       <c r="R26">
-        <v>549.5260579013495</v>
+        <v>773.3038870636351</v>
       </c>
       <c r="S26">
-        <v>26.82667136100251</v>
+        <v>15.15033318474636</v>
       </c>
       <c r="T26">
-        <v>40.93602423320273</v>
+        <v>25.02428567563407</v>
       </c>
       <c r="U26">
-        <v>3.712010463480404</v>
+        <v>3.219846780363677</v>
       </c>
       <c r="V26">
-        <v>418.324487684207</v>
+        <v>721.3862308624923</v>
       </c>
       <c r="W26">
-        <v>646.6321652584452</v>
+        <v>274.7907029855671</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
       </c>
       <c r="Y26">
-        <v>478.0925617625187</v>
+        <v>150.667676388209</v>
       </c>
       <c r="Z26">
-        <v>1.352525048443746</v>
+        <v>1.823819876783285</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>500.7947259037076</v>
+        <v>636.3474626538499</v>
       </c>
       <c r="H27">
-        <v>8.194131993563639</v>
+        <v>12.5329555578337</v>
       </c>
       <c r="I27">
-        <v>492.600593910144</v>
+        <v>623.8145070960162</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>668.9949982946198</v>
+        <v>941.5771886820114</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>0.7363292627984743</v>
+        <v>0.6625208369472195</v>
       </c>
       <c r="O27">
-        <v>688.332419714242</v>
+        <v>988.5010461444532</v>
       </c>
       <c r="P27">
-        <v>19.33742141962198</v>
+        <v>46.92385746244165</v>
       </c>
       <c r="Q27">
-        <v>3.572229737170086</v>
+        <v>3.047663466912241</v>
       </c>
       <c r="R27">
-        <v>599.9172864592566</v>
+        <v>798.5690625671308</v>
       </c>
       <c r="S27">
-        <v>35.59587417460843</v>
+        <v>21.06606531518982</v>
       </c>
       <c r="T27">
-        <v>61.11626299125691</v>
+        <v>50.77393434592548</v>
       </c>
       <c r="U27">
-        <v>4.112778000830252</v>
+        <v>3.927383119475162</v>
       </c>
       <c r="V27">
-        <v>458.8999481111161</v>
+        <v>574.5927890010478</v>
       </c>
       <c r="W27">
-        <v>592.6198333570219</v>
+        <v>461.4059201711497</v>
       </c>
       <c r="X27">
         <v>1085.220427267166</v>
       </c>
       <c r="Y27">
-        <v>416.2254289725461</v>
+        <v>143.6432385851544</v>
       </c>
       <c r="Z27">
-        <v>1.423795357289693</v>
+        <v>3.212165951672131</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>642.7259931235899</v>
+        <v>965.2835684002871</v>
       </c>
       <c r="H28">
-        <v>6.328380100051852</v>
+        <v>27.95338592235634</v>
       </c>
       <c r="I28">
-        <v>636.397613023538</v>
+        <v>937.3301824779307</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>745.3959225024744</v>
+        <v>1111.759558438628</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.8537712560688517</v>
+        <v>0.8431051258910079</v>
       </c>
       <c r="O28">
-        <v>779.9290081588406</v>
+        <v>1167.702173078015</v>
       </c>
       <c r="P28">
-        <v>34.53308565636632</v>
+        <v>55.94261463938647</v>
       </c>
       <c r="Q28">
-        <v>3.117285031341922</v>
+        <v>3.038466715320712</v>
       </c>
       <c r="R28">
-        <v>637.7464514998351</v>
+        <v>941.7797858888393</v>
       </c>
       <c r="S28">
-        <v>22.58497882059541</v>
+        <v>20.87321410708416</v>
       </c>
       <c r="T28">
-        <v>101.5624824934779</v>
+        <v>34.53190146916263</v>
       </c>
       <c r="U28">
-        <v>4.620674200152131</v>
+        <v>3.541883577049462</v>
       </c>
       <c r="V28">
-        <v>607.1562303664723</v>
+        <v>838.3225439566112</v>
       </c>
       <c r="W28">
-        <v>564.7267981985863</v>
+        <v>263.7942287441936</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
       </c>
       <c r="Y28">
-        <v>455.7284887196499</v>
+        <v>89.36485278349642</v>
       </c>
       <c r="Z28">
-        <v>1.239173789168113</v>
+        <v>2.951878960549355</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>421.7437738735716</v>
+        <v>628.7255755189522</v>
       </c>
       <c r="H29">
-        <v>8.113378585735902</v>
+        <v>19.29455667179134</v>
       </c>
       <c r="I29">
-        <v>413.6303952878357</v>
+        <v>609.4310188471608</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>509.5000894733349</v>
+        <v>802.8340291155341</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>0.811835765751094</v>
+        <v>0.7590996354732976</v>
       </c>
       <c r="O29">
-        <v>524.8087351725844</v>
+        <v>865.7291707031663</v>
       </c>
       <c r="P29">
-        <v>15.30864569924952</v>
+        <v>62.8951415876321</v>
       </c>
       <c r="Q29">
-        <v>3.534616135072147</v>
+        <v>2.622103203278788</v>
       </c>
       <c r="R29">
-        <v>455.3899033786647</v>
+        <v>637.9164768879311</v>
       </c>
       <c r="S29">
-        <v>34.28185258728094</v>
+        <v>13.76464300500766</v>
       </c>
       <c r="T29">
-        <v>51.98127628544756</v>
+        <v>32.58564507150088</v>
       </c>
       <c r="U29">
-        <v>3.950883582306442</v>
+        <v>3.483871856166601</v>
       </c>
       <c r="V29">
-        <v>381.5753810364151</v>
+        <v>542.2112558810954</v>
       </c>
       <c r="W29">
-        <v>508.5133405373405</v>
+        <v>312.7127169780155</v>
       </c>
       <c r="X29">
         <v>922.1437358251762</v>
       </c>
       <c r="Y29">
-        <v>412.6436463518414</v>
+        <v>119.3097067096421</v>
       </c>
       <c r="Z29">
-        <v>1.23233047457068</v>
+        <v>2.621016559357138</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>286.1767373142138</v>
+        <v>689.5501280748782</v>
       </c>
       <c r="H30">
-        <v>10.44122343660039</v>
+        <v>40.17793237164667</v>
       </c>
       <c r="I30">
-        <v>275.7355138776134</v>
+        <v>649.3721957032316</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>482.7111968573355</v>
+        <v>777.0037668159453</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
-        <v>0.5712225356958244</v>
+        <v>0.8357388000373147</v>
       </c>
       <c r="O30">
-        <v>524.6575727565482</v>
+        <v>848.786919010911</v>
       </c>
       <c r="P30">
-        <v>41.94637589921254</v>
+        <v>71.78315219496568</v>
       </c>
       <c r="Q30">
-        <v>2.52635376919962</v>
+        <v>2.470158376600579</v>
       </c>
       <c r="R30">
-        <v>376.739812000096</v>
+        <v>599.6880121227565</v>
       </c>
       <c r="S30">
-        <v>12.50781650403313</v>
+        <v>11.82431939886917</v>
       </c>
       <c r="T30">
-        <v>27.40835296283935</v>
+        <v>17.16240949625097</v>
       </c>
       <c r="U30">
-        <v>3.310847819594265</v>
+        <v>2.842721497737198</v>
       </c>
       <c r="V30">
-        <v>241.1662120286485</v>
+        <v>535.1575236157203</v>
       </c>
       <c r="W30">
-        <v>779.1634951838778</v>
+        <v>405.5268133582596</v>
       </c>
       <c r="X30">
         <v>1054.899009061491</v>
       </c>
       <c r="Y30">
-        <v>572.1878122041556</v>
+        <v>277.8952422455459</v>
       </c>
       <c r="Z30">
-        <v>1.361726829137482</v>
+        <v>1.459279439552043</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>724.8431737829848</v>
+        <v>983.2399618191625</v>
       </c>
       <c r="H31">
-        <v>4.531005855662935</v>
+        <v>17.82797191476354</v>
       </c>
       <c r="I31">
-        <v>720.3121679273219</v>
+        <v>965.411989904399</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>720.3121679273218</v>
+        <v>1002.505455770264</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.962999237907025</v>
       </c>
       <c r="O31">
-        <v>724.8431737829848</v>
+        <v>1055.43666152</v>
       </c>
       <c r="P31">
-        <v>4.531005855662935</v>
+        <v>52.93120574973614</v>
       </c>
       <c r="Q31">
-        <v>5.075011361392683</v>
+        <v>2.992716791761358</v>
       </c>
       <c r="R31">
-        <v>697.3172617312957</v>
+        <v>844.0973475148535</v>
       </c>
       <c r="S31">
-        <v>159.9740094966027</v>
+        <v>19.93978120412006</v>
       </c>
       <c r="T31">
-        <v>159.9740094966027</v>
+        <v>55.15153190279209</v>
       </c>
       <c r="U31">
-        <v>5.075011361392683</v>
+        <v>4.010084522336259</v>
       </c>
       <c r="V31">
-        <v>697.3172617312957</v>
+        <v>893.9203156643603</v>
       </c>
       <c r="W31">
-        <v>371.9790619251177</v>
+        <v>126.8792399480405</v>
       </c>
       <c r="X31">
         <v>1092.29122985244</v>
       </c>
       <c r="Y31">
-        <v>371.9790619251178</v>
+        <v>89.78577408217552</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999997</v>
+        <v>1.41313299623519</v>
       </c>
     </row>
   </sheetData>
